--- a/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/医疗保健和个人用品类居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/医疗保健和个人用品类居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,674 +498,258 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>102.75682</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103.02567</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.44336</v>
+      </c>
       <c r="E2" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>111.17204</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101.56667</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100.47835</v>
+      </c>
       <c r="H2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>103.1836</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100.8577</v>
+      </c>
       <c r="J2" t="n">
-        <v>100.3</v>
+        <v>103.25585</v>
       </c>
       <c r="K2" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>104.97848</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100.3797</v>
+      </c>
       <c r="M2" t="n">
-        <v>97</v>
+        <v>100.97707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.681</v>
+        <v>104.93851223</v>
       </c>
       <c r="C3" t="n">
-        <v>99.474</v>
+        <v>104.36966442</v>
       </c>
       <c r="D3" t="n">
-        <v>97.8245</v>
+        <v>108.83918459</v>
       </c>
       <c r="E3" t="n">
-        <v>101.3664</v>
+        <v>111.90258446</v>
       </c>
       <c r="F3" t="n">
-        <v>97.31699999999999</v>
+        <v>104.40421975</v>
       </c>
       <c r="G3" t="n">
-        <v>99.8276</v>
+        <v>101.04925039</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0017</v>
+        <v>103.36342676</v>
       </c>
       <c r="I3" t="n">
-        <v>110.5017</v>
+        <v>100.61212321</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2589</v>
+        <v>102.88483214</v>
       </c>
       <c r="K3" t="n">
-        <v>98.28919999999999</v>
+        <v>101.91871792</v>
       </c>
       <c r="L3" t="n">
-        <v>97.9118</v>
+        <v>101.80473607</v>
       </c>
       <c r="M3" t="n">
-        <v>94.8216</v>
+        <v>99.72310204999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1999</v>
+        <v>105.32826906</v>
       </c>
       <c r="C4" t="n">
-        <v>99.4752</v>
+        <v>102.63030953</v>
       </c>
       <c r="D4" t="n">
-        <v>99.2663</v>
+        <v>100.21167751</v>
       </c>
       <c r="E4" t="n">
-        <v>96.6073</v>
+        <v>105.02239813</v>
       </c>
       <c r="F4" t="n">
-        <v>97.1153</v>
+        <v>102.54050213</v>
       </c>
       <c r="G4" t="n">
-        <v>99.657</v>
+        <v>101.27457437</v>
       </c>
       <c r="H4" t="n">
-        <v>98.8356</v>
+        <v>101.99974674</v>
       </c>
       <c r="I4" t="n">
-        <v>108.1664</v>
+        <v>100.70142934</v>
       </c>
       <c r="J4" t="n">
-        <v>98.5472</v>
+        <v>101.6955028</v>
       </c>
       <c r="K4" t="n">
-        <v>97.2474</v>
+        <v>102.74055577</v>
       </c>
       <c r="L4" t="n">
-        <v>97.33929999999999</v>
+        <v>103.51341268</v>
       </c>
       <c r="M4" t="n">
-        <v>94.5431</v>
+        <v>100.29566944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.7885</v>
+        <v>105.42339778</v>
       </c>
       <c r="C5" t="n">
-        <v>100.1807</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>102.8799</v>
+        <v>95.30792640999999</v>
       </c>
       <c r="E5" t="n">
-        <v>104.9957</v>
+        <v>103.30676303</v>
       </c>
       <c r="F5" t="n">
-        <v>98.20659999999999</v>
+        <v>102.07851741</v>
       </c>
       <c r="G5" t="n">
-        <v>99.5359</v>
+        <v>101.03619443</v>
       </c>
       <c r="H5" t="n">
-        <v>100.8728</v>
+        <v>101.3</v>
       </c>
       <c r="I5" t="n">
-        <v>108.8896</v>
+        <v>101.52070224</v>
       </c>
       <c r="J5" t="n">
-        <v>101.1803</v>
+        <v>101.5</v>
       </c>
       <c r="K5" t="n">
-        <v>101.0376</v>
+        <v>100.74425609</v>
       </c>
       <c r="L5" t="n">
-        <v>97.0945</v>
+        <v>102.01847608</v>
       </c>
       <c r="M5" t="n">
-        <v>94.49160000000001</v>
+        <v>100.19021329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.7913</v>
+        <v>104.21567162</v>
       </c>
       <c r="C6" t="n">
-        <v>101.1586</v>
+        <v>100.4</v>
       </c>
       <c r="D6" t="n">
-        <v>104.5178</v>
+        <v>95.25040914</v>
       </c>
       <c r="E6" t="n">
-        <v>98.949</v>
+        <v>103.04647857</v>
       </c>
       <c r="F6" t="n">
-        <v>98.6228</v>
+        <v>103.87495045</v>
       </c>
       <c r="G6" t="n">
-        <v>98.82380000000001</v>
+        <v>100.65059103</v>
       </c>
       <c r="H6" t="n">
-        <v>99.68819999999999</v>
+        <v>101.3</v>
       </c>
       <c r="I6" t="n">
-        <v>105.2003</v>
+        <v>101.15755794</v>
       </c>
       <c r="J6" t="n">
-        <v>99.05159999999999</v>
+        <v>101.7</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2652</v>
+        <v>100.62949642</v>
       </c>
       <c r="L6" t="n">
-        <v>98.42870000000001</v>
+        <v>100.94570131</v>
       </c>
       <c r="M6" t="n">
-        <v>94.8964</v>
+        <v>100.64205735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.8947</v>
+        <v>104.27183</v>
       </c>
       <c r="C7" t="n">
-        <v>100.7744</v>
+        <v>100.55073</v>
       </c>
       <c r="D7" t="n">
-        <v>101.6343</v>
+        <v>95.65026</v>
       </c>
       <c r="E7" t="n">
-        <v>96.51819999999999</v>
+        <v>102.73937</v>
       </c>
       <c r="F7" t="n">
-        <v>99.9646</v>
+        <v>103.93055</v>
       </c>
       <c r="G7" t="n">
-        <v>99.37869999999999</v>
+        <v>100.31817</v>
       </c>
       <c r="H7" t="n">
-        <v>99.9198</v>
+        <v>101.98156</v>
       </c>
       <c r="I7" t="n">
-        <v>105.1812</v>
+        <v>102.6678</v>
       </c>
       <c r="J7" t="n">
-        <v>99.5468</v>
+        <v>102.66618</v>
       </c>
       <c r="K7" t="n">
-        <v>97.3621</v>
+        <v>101.06926</v>
       </c>
       <c r="L7" t="n">
-        <v>99.4432</v>
+        <v>100.83034</v>
       </c>
       <c r="M7" t="n">
-        <v>97.7226</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>102.52132</v>
-      </c>
-      <c r="C8" t="n">
-        <v>103.1573</v>
-      </c>
-      <c r="D8" t="n">
-        <v>110.78474</v>
-      </c>
-      <c r="E8" t="n">
-        <v>99.87730999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.34443</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.70285</v>
-      </c>
-      <c r="H8" t="n">
-        <v>101.10327</v>
-      </c>
-      <c r="I8" t="n">
-        <v>103.02209</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.21516</v>
-      </c>
-      <c r="K8" t="n">
-        <v>97.16257</v>
-      </c>
-      <c r="L8" t="n">
-        <v>99.88084000000001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>98.38557</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>103.09773</v>
-      </c>
-      <c r="C9" t="n">
-        <v>102.09555</v>
-      </c>
-      <c r="D9" t="n">
-        <v>104.46829</v>
-      </c>
-      <c r="E9" t="n">
-        <v>107.8596</v>
-      </c>
-      <c r="F9" t="n">
-        <v>101.07565</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100.09347</v>
-      </c>
-      <c r="H9" t="n">
-        <v>102.10509</v>
-      </c>
-      <c r="I9" t="n">
-        <v>102.23363</v>
-      </c>
-      <c r="J9" t="n">
-        <v>102.10873</v>
-      </c>
-      <c r="K9" t="n">
-        <v>98.16212</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100.3119</v>
-      </c>
-      <c r="M9" t="n">
-        <v>99.12654999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>105.0003</v>
-      </c>
-      <c r="C10" t="n">
-        <v>104.37106</v>
-      </c>
-      <c r="D10" t="n">
-        <v>109.65313</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106.78591</v>
-      </c>
-      <c r="F10" t="n">
-        <v>102.11101</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100.63333</v>
-      </c>
-      <c r="H10" t="n">
-        <v>102.90398</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100.48162</v>
-      </c>
-      <c r="J10" t="n">
-        <v>102.24805</v>
-      </c>
-      <c r="K10" t="n">
-        <v>99.70863</v>
-      </c>
-      <c r="L10" t="n">
-        <v>101.71962</v>
-      </c>
-      <c r="M10" t="n">
-        <v>101.10099</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>103.82925</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100.79171</v>
-      </c>
-      <c r="D11" t="n">
-        <v>96.25922</v>
-      </c>
-      <c r="E11" t="n">
-        <v>102.61402</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101.0532</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100.77262</v>
-      </c>
-      <c r="H11" t="n">
-        <v>101.1858</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100.9722</v>
-      </c>
-      <c r="J11" t="n">
-        <v>101.36813</v>
-      </c>
-      <c r="K11" t="n">
-        <v>101.59886</v>
-      </c>
-      <c r="L11" t="n">
-        <v>102.10247</v>
-      </c>
-      <c r="M11" t="n">
-        <v>101.02737</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>102.75682</v>
-      </c>
-      <c r="C12" t="n">
-        <v>103.02567</v>
-      </c>
-      <c r="D12" t="n">
-        <v>108.44336</v>
-      </c>
-      <c r="E12" t="n">
-        <v>111.17204</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.56667</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100.47835</v>
-      </c>
-      <c r="H12" t="n">
-        <v>103.1836</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100.8577</v>
-      </c>
-      <c r="J12" t="n">
-        <v>103.25585</v>
-      </c>
-      <c r="K12" t="n">
-        <v>104.97848</v>
-      </c>
-      <c r="L12" t="n">
-        <v>100.3797</v>
-      </c>
-      <c r="M12" t="n">
-        <v>100.97707</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>104.93851223</v>
-      </c>
-      <c r="C13" t="n">
-        <v>104.36966442</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108.83918459</v>
-      </c>
-      <c r="E13" t="n">
-        <v>111.90258446</v>
-      </c>
-      <c r="F13" t="n">
-        <v>104.40421975</v>
-      </c>
-      <c r="G13" t="n">
-        <v>101.04925039</v>
-      </c>
-      <c r="H13" t="n">
-        <v>103.36342676</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.61212321</v>
-      </c>
-      <c r="J13" t="n">
-        <v>102.88483214</v>
-      </c>
-      <c r="K13" t="n">
-        <v>101.91871792</v>
-      </c>
-      <c r="L13" t="n">
-        <v>101.80473607</v>
-      </c>
-      <c r="M13" t="n">
-        <v>99.72310204999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>105.32826906</v>
-      </c>
-      <c r="C14" t="n">
-        <v>102.63030953</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100.21167751</v>
-      </c>
-      <c r="E14" t="n">
-        <v>105.02239813</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.54050213</v>
-      </c>
-      <c r="G14" t="n">
-        <v>101.27457437</v>
-      </c>
-      <c r="H14" t="n">
-        <v>101.99974674</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.70142934</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.6955028</v>
-      </c>
-      <c r="K14" t="n">
-        <v>102.74055577</v>
-      </c>
-      <c r="L14" t="n">
-        <v>103.51341268</v>
-      </c>
-      <c r="M14" t="n">
-        <v>100.29566944</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>105.42339778</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101</v>
-      </c>
-      <c r="D15" t="n">
-        <v>95.30792640999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>103.30676303</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.07851741</v>
-      </c>
-      <c r="G15" t="n">
-        <v>101.03619443</v>
-      </c>
-      <c r="H15" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>101.52070224</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100.74425609</v>
-      </c>
-      <c r="L15" t="n">
-        <v>102.01847608</v>
-      </c>
-      <c r="M15" t="n">
-        <v>100.19021329</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>104.21567162</v>
-      </c>
-      <c r="C16" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95.25040914</v>
-      </c>
-      <c r="E16" t="n">
-        <v>103.04647857</v>
-      </c>
-      <c r="F16" t="n">
-        <v>103.87495045</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.65059103</v>
-      </c>
-      <c r="H16" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101.15755794</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100.62949642</v>
-      </c>
-      <c r="L16" t="n">
-        <v>100.94570131</v>
-      </c>
-      <c r="M16" t="n">
-        <v>100.64205735</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>104.27183</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100.55073</v>
-      </c>
-      <c r="D17" t="n">
-        <v>95.65026</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102.73937</v>
-      </c>
-      <c r="F17" t="n">
-        <v>103.93055</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100.31817</v>
-      </c>
-      <c r="H17" t="n">
-        <v>101.98156</v>
-      </c>
-      <c r="I17" t="n">
-        <v>102.6678</v>
-      </c>
-      <c r="J17" t="n">
-        <v>102.66618</v>
-      </c>
-      <c r="K17" t="n">
-        <v>101.06926</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.83034</v>
-      </c>
-      <c r="M17" t="n">
         <v>102.28439</v>
       </c>
     </row>
